--- a/tcp-ip/iptables.xlsx
+++ b/tcp-ip/iptables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nodejs-study-notes\tcp-ip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95717C52-1AD5-4F98-A0BD-5EA2EBCE264F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAADCC0-9F68-42FC-9AC7-E1628D803727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14265" yWindow="945" windowWidth="12990" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>iptables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +282,122 @@
   </si>
   <si>
     <t xml:space="preserve">-j DNAT --to IP[-IP][:端口-端口](nat表的PREROUTING链)       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8848/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nacos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8080/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6379/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3306/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5672/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitmq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15672/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9200/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9300/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8719/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logstash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4560/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4561/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4562/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4563/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27017/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9555/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9092/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2181/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8091/tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +419,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -492,83 +602,83 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,229 +1003,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1129,4 +1239,167 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B296B1-762B-426F-804A-8C5DB352F224}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>